--- a/data/extracted_data/raw_round2/Velasquez_2014_Fig_2.xlsx
+++ b/data/extracted_data/raw_round2/Velasquez_2014_Fig_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tinafang19961207/Desktop/biotoxin_depuration_round2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B402FF-7E81-AC41-BAAE-97E10BC2CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A2B402FF-7E81-AC41-BAAE-97E10BC2CE02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F055F8E-CC60-014D-B137-AE02EC396B6A}"/>
   <bookViews>
-    <workbookView xWindow="16760" yWindow="5360" windowWidth="28040" windowHeight="17440" xr2:uid="{8C981D56-3FF0-E74A-B15A-3E9D9A5745CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{8C981D56-3FF0-E74A-B15A-3E9D9A5745CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>Corral Bay, Valdivia</t>
   </si>
   <si>
-    <t>time</t>
+    <t>Melinka, Aysen</t>
   </si>
   <si>
-    <t>toxticity</t>
+    <t>day</t>
   </si>
   <si>
-    <t>Melinka, Aysen</t>
+    <t>toxicity</t>
   </si>
 </sst>
 </file>
@@ -106,9 +106,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -146,7 +146,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -252,7 +252,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,7 +394,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,7 +405,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -418,10 +418,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -525,7 +525,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14">
         <v>8</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
         <v>12</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B16">
         <v>13</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -602,7 +602,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>20</v>
